--- a/medicine/Enfance/Les_Aventures_de_Flora_et_Ulysse/Les_Aventures_de_Flora_et_Ulysse.xlsx
+++ b/medicine/Enfance/Les_Aventures_de_Flora_et_Ulysse/Les_Aventures_de_Flora_et_Ulysse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Aventures de Flora et Ulysse ou Flora &amp; Ulysse : Les lumineuses aventures (Flora &amp; Ulysses: The Illuminated Adventures) est un roman pour enfants de l'écrivaine américaine Kate DiCamillo, illustré par Keith G. Campbell. Publié en 2013 par Candlewick Press, il raconte l'histoire de Flora Buckman et d'un écureuil nommé Ulysse.
@@ -514,9 +526,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le texte est accompagné d'illustrations en noir et blanc. Elles comprennent des dessins pleine page et de petits dessins au crayon. Mais dans certains passages, le format change. Le roman devient alors un comic book où les aventures des personnages peuvent être suivies dans des cases de bandes dessinées. Les dessins sont réalisés par l'artiste Keith G. Campbell[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le texte est accompagné d'illustrations en noir et blanc. Elles comprennent des dessins pleine page et de petits dessins au crayon. Mais dans certains passages, le format change. Le roman devient alors un comic book où les aventures des personnages peuvent être suivies dans des cases de bandes dessinées. Les dessins sont réalisés par l'artiste Keith G. Campbell.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Flora Belle Buckman, 10 ans, cynique autoproclamée, passe son temps à lire des bandes dessinées et a du mal à comprendre le récent divorce de ses parents. Elle est poussée à agir lorsque la voisine est à deux doigts de tuer un écureuil avec un aspirateur. Sauvé de peu de la mort par Flora, l'écureuil développe des super-pouvoirs lui permettant de comprendre les humains et de voler. Flora nomme alors l'écureuil Ulysse (d'après l'aspirateur qui portait la marque Ulysse). Flora explique à Ulysse qu'il doit utiliser ses nouveaux pouvoirs pour réparer les torts, combattre l'injustice, « ou quelque chose comme ça ». Ulysse décide d'écrire sur la machine à écrire de la mère de Flora, révélant qu'il peut écrire de la poésie.
 Lorsque Flora confronte sa mère qui désire tuer Ulysse, une dispute éclate et des cris sont proférés. Flora en vient à croire que sa mère ne l'aime pas. Se sentant blessée, elle déclare qu'elle rentrera chez son père. Ulysse écrit un poème pour expliquer les vraies émotions de Flora et de sa mère, mais la mère de Flora le capture avant que le poème ne puisse être lu. Flora réunit alors une équipe pour sauver Ulysse qui s'est déjà échappé, laissant la mère de Flora en train de lire son poème. La bande se réunit dans l'immeuble du père où l'extérieur cynique de Flora se fissure pour de bon alors qu'elle se rend compte que sa mère l'aime vraiment.
@@ -577,10 +593,12 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La critique du Horn Book a décrit le livre comme « réconfortant » avec beaucoup d'humour et un « casting de soutien excentrique », et note que les illustrations « accentuent l'ambiance »[2].
-Traduit en une vingtaine de langues, les ventes du roman dépasse le million d'exemplaires[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La critique du Horn Book a décrit le livre comme « réconfortant » avec beaucoup d'humour et un « casting de soutien excentrique », et note que les illustrations « accentuent l'ambiance ».
+Traduit en une vingtaine de langues, les ventes du roman dépasse le million d'exemplaires.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flora &amp; Ulysse remporte la médaille Newbery de 2014[4]. C'est la deuxième fois que l'écrivaine Kate DiCamillo reçoit cette récompense. La première était pour La légende de Despereaux (The Tale of Despereaux) en 2004.
-Il est également sélectionné pour les National Book Awards de 2013 dans la catégorie « Littérature Jeunesse »[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flora &amp; Ulysse remporte la médaille Newbery de 2014. C'est la deuxième fois que l'écrivaine Kate DiCamillo reçoit cette récompense. La première était pour La légende de Despereaux (The Tale of Despereaux) en 2004.
+Il est également sélectionné pour les National Book Awards de 2013 dans la catégorie « Littérature Jeunesse ».
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kate DiCamillo (trad. Hélène Pilotto, ill. K. G. Campbell), Les aventures de Flora et Ulysse, Scholastic, mars 2014, 240 p. (ISBN 978-1-4431-3267-1)
 Kate DiCamillo (trad. Mickey Gaboriaud, ill. K. G. Campbell), Flora &amp; Ulysse : Les lumineuses aventures, Paris, Les Grandes Personnes, 28 août 2014, 240 p. (ISBN 978-2-3619-3325-8)</t>
@@ -672,9 +694,11 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 31 mai 2018, Disney annonce le développement d'une adaptation cinématographique du roman pour son service de streaming, Disney +, avec Brad Copeland au scénario[6]. Le 13 juin 2019, Alyson Hannigan et Ben Schwartz sont cités comme parents de Flora. Le producteur Gil Netter supervise le projet[7]. Le 27 juin 2019, il est annoncé que Lena Khan réalise le film, et Matilda Lawler est choisie pour le rôle principal de Flora Buckman. Benjamin Evans Ainsworth et Danny Pudi sont également ajoutés au casting tandis que le tournage commence à Vancouver[8]. Il se termine le 23 août 2019. Le 20 février 2021, Disney annonce que le film Flora &amp; Ulysse (Flora &amp; Ulysses) est disponible en streaming via Disney+.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 mai 2018, Disney annonce le développement d'une adaptation cinématographique du roman pour son service de streaming, Disney +, avec Brad Copeland au scénario. Le 13 juin 2019, Alyson Hannigan et Ben Schwartz sont cités comme parents de Flora. Le producteur Gil Netter supervise le projet. Le 27 juin 2019, il est annoncé que Lena Khan réalise le film, et Matilda Lawler est choisie pour le rôle principal de Flora Buckman. Benjamin Evans Ainsworth et Danny Pudi sont également ajoutés au casting tandis que le tournage commence à Vancouver. Il se termine le 23 août 2019. Le 20 février 2021, Disney annonce que le film Flora &amp; Ulysse (Flora &amp; Ulysses) est disponible en streaming via Disney+.
 </t>
         </is>
       </c>
